--- a/out/factors.xlsx
+++ b/out/factors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>feature_importance</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>predicted_dissatisfaction_delta</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -511,9 +506,6 @@
       <c r="H2" t="n">
         <v>0.9015337936114683</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.04905457279069363</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -546,9 +538,6 @@
       <c r="H3" t="n">
         <v>0.04199055645104691</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.02656152611675559</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -581,9 +570,6 @@
       <c r="H4" t="n">
         <v>0.02509623056070723</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.01880236057734017</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -616,18 +602,15 @@
       <c r="H5" t="n">
         <v>0.007007616490164711</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.0111501935098194</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>caller_is_employee</t>
+          <t>reassignment_count</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -640,29 +623,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>85.03539735886675</v>
+        <v>384.3171526993451</v>
       </c>
       <c r="G6" t="n">
-        <v>2.930712052604616e-20</v>
+        <v>1.358657888241235e-72</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005773965052043</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.01078907443846973</v>
+        <v>0.006951365941291337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>reassignment_count</t>
+          <t>caller_is_employee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -675,19 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>384.3171526993451</v>
+        <v>85.03539735886675</v>
       </c>
       <c r="G7" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.930712052604616e-20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006951365941291337</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.00188231226842886</v>
+        <v>0.005773965052043</v>
       </c>
     </row>
     <row r="8">
@@ -721,7 +698,6 @@
       <c r="H8" t="n">
         <v>0.005488917236315931</v>
       </c>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -754,7 +730,6 @@
       <c r="H9" t="n">
         <v>0.002531471778483367</v>
       </c>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -787,7 +762,6 @@
       <c r="H10" t="n">
         <v>0.002124437843850688</v>
       </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -820,7 +794,6 @@
       <c r="H11" t="n">
         <v>0.0008014904885535787</v>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,7 +826,6 @@
       <c r="H12" t="n">
         <v>0.0007001545460747457</v>
       </c>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -886,7 +858,6 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -919,7 +890,6 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -952,7 +922,6 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -985,7 +954,6 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1014,7 +982,6 @@
         <v>6.281977847913644e-23</v>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1043,7 +1010,6 @@
         <v>9.202799494861961e-76</v>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1072,7 +1038,6 @@
         <v>1.055341826075107e-94</v>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1101,7 +1066,6 @@
         <v>1.400057343459844e-66</v>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1130,7 +1094,6 @@
         <v>5.492938861828806e-18</v>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1159,7 +1122,6 @@
         <v>3.533923241743454e-15</v>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1188,7 +1150,6 @@
         <v>1.009852580679422e-07</v>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1217,7 +1178,6 @@
         <v>1.464738759557574e-05</v>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1246,7 +1206,6 @@
         <v>0.6220148571644246</v>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1271,7 +1230,6 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/out/factors.xlsx
+++ b/out/factors.xlsx
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5062.013458560402</v>
+        <v>5086.153335856128</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9015337936114683</v>
+        <v>0.8540265712417093</v>
       </c>
     </row>
     <row r="3">
@@ -530,13 +530,13 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G3" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
     </row>
     <row r="4">
@@ -562,23 +562,23 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>220.5158252870746</v>
+        <v>220.8241972240276</v>
       </c>
       <c r="G4" t="n">
-        <v>6.980226719986232e-50</v>
+        <v>5.978698520033615e-50</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02509623056070723</v>
+        <v>0.03113305331997251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training</t>
+          <t>close_code_Data Correction</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -594,13 +594,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7859219645519846</v>
+        <v>116.6857017813586</v>
       </c>
       <c r="G5" t="n">
-        <v>0.375336089387886</v>
+        <v>3.363625883314413e-27</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007007616490164711</v>
+        <v>0.02110987240302388</v>
       </c>
     </row>
     <row r="6">
@@ -626,23 +626,23 @@
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="G6" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006951365941291337</v>
+        <v>0.01301928421089169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>caller_is_employee</t>
+          <t>close_code_Information Provided / Training</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -651,30 +651,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>85.03539735886675</v>
+        <v>0.8883290064550426</v>
       </c>
       <c r="G7" t="n">
-        <v>2.930712052604616e-20</v>
+        <v>0.3459305333140232</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005773965052043</v>
+        <v>0.00492061072439518</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>has_knowledge_article</t>
+          <t>sla_breached</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -690,23 +690,23 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>34.30570374311844</v>
+        <v>915.4726472302203</v>
       </c>
       <c r="G8" t="n">
-        <v>4.709993648472096e-09</v>
+        <v>4.248980687842385e-201</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005488917236315931</v>
+        <v>0.003545907502174473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>close_code_Data Correction</t>
+          <t>has_knowledge_article</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -715,30 +715,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>116.0908939128296</v>
+        <v>34.81280277953115</v>
       </c>
       <c r="G9" t="n">
-        <v>4.540043543283562e-27</v>
+        <v>3.629786486834646e-09</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002531471778483367</v>
+        <v>0.002345639194990277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sla_breached</t>
+          <t>caller_is_employee</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -754,13 +754,13 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>908.9557835042174</v>
+        <v>86.00805738538253</v>
       </c>
       <c r="G10" t="n">
-        <v>1.109051363170596e-199</v>
+        <v>1.792039823210119e-20</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002124437843850688</v>
+        <v>0.002000261713705436</v>
       </c>
     </row>
     <row r="11">
@@ -786,13 +786,13 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>40.67857666800625</v>
+        <v>42.314501917315</v>
       </c>
       <c r="G11" t="n">
-        <v>1.794437343421407e-10</v>
+        <v>7.771416267429973e-11</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008014904885535787</v>
+        <v>0.0003918017624877692</v>
       </c>
     </row>
     <row r="12">
@@ -818,13 +818,13 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>109.2587322909771</v>
+        <v>109.391853707005</v>
       </c>
       <c r="G12" t="n">
-        <v>1.424268573634559e-25</v>
+        <v>1.331757529725758e-25</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007001545460747457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -850,10 +850,10 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>30.01301901709297</v>
+        <v>30.0312876065441</v>
       </c>
       <c r="G13" t="n">
-        <v>4.291552891289624e-08</v>
+        <v>4.251311960370145e-08</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>20.72392705923381</v>
+        <v>21.56381917347364</v>
       </c>
       <c r="G14" t="n">
-        <v>5.30489710067143e-06</v>
+        <v>3.422476790024476e-06</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>14.97738401036684</v>
+        <v>15.28524034640144</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001088074403523893</v>
+        <v>9.243595384270451e-05</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>3.755177606479185</v>
+        <v>3.540962606063545</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05264420264064077</v>
+        <v>0.05987070582593627</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -973,13 +973,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="F17" t="n">
-        <v>2660.683781866036</v>
+        <v>2681.182401149468</v>
       </c>
       <c r="G17" t="n">
-        <v>6.281977847913644e-23</v>
+        <v>1.250721961446571e-23</v>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F18" t="n">
-        <v>1822.524598921105</v>
+        <v>1824.123930449769</v>
       </c>
       <c r="G18" t="n">
-        <v>9.202799494861961e-76</v>
+        <v>2.858346425893734e-75</v>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -1029,13 +1029,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" t="n">
-        <v>757.0477081279878</v>
+        <v>757.5341707421819</v>
       </c>
       <c r="G19" t="n">
-        <v>1.055341826075107e-94</v>
+        <v>2.201367192346436e-94</v>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
@@ -1060,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>334.2336581984052</v>
+        <v>335.8134709170386</v>
       </c>
       <c r="G20" t="n">
-        <v>1.400057343459844e-66</v>
+        <v>6.459790618508831e-67</v>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
@@ -1088,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>104.9694982966936</v>
+        <v>103.315517062819</v>
       </c>
       <c r="G21" t="n">
-        <v>5.492938861828806e-18</v>
+        <v>1.180107952614957e-17</v>
       </c>
       <c r="H21" t="inlineStr"/>
     </row>
@@ -1116,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>73.82325109790953</v>
+        <v>75.24537910926617</v>
       </c>
       <c r="G22" t="n">
-        <v>3.533923241743454e-15</v>
+        <v>1.76813754184472e-15</v>
       </c>
       <c r="H22" t="inlineStr"/>
     </row>
@@ -1144,10 +1144,10 @@
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>52.28655870110554</v>
+        <v>53.02979898947834</v>
       </c>
       <c r="G23" t="n">
-        <v>1.009852580679422e-07</v>
+        <v>7.351678343089048e-08</v>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
@@ -1172,10 +1172,10 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>25.10952190195545</v>
+        <v>23.80406556053098</v>
       </c>
       <c r="G24" t="n">
-        <v>1.464738759557574e-05</v>
+        <v>2.744679293689399e-05</v>
       </c>
       <c r="H24" t="inlineStr"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2430458325876041</v>
+        <v>0.2463471129800019</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6220148571644246</v>
+        <v>0.6196590139590284</v>
       </c>
       <c r="H25" t="inlineStr"/>
     </row>

--- a/out/factors.xlsx
+++ b/out/factors.xlsx
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5086.153335856128</v>
+        <v>5084.708078551253</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8540265712417093</v>
+        <v>0.9174228422786094</v>
       </c>
     </row>
     <row r="3">
@@ -530,13 +530,13 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G3" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
     </row>
     <row r="4">
@@ -562,13 +562,13 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>220.8241972240276</v>
+        <v>229.8268714047051</v>
       </c>
       <c r="G4" t="n">
-        <v>5.978698520033615e-50</v>
+        <v>6.50278065057951e-52</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03113305331997251</v>
+        <v>0.009510591851889585</v>
       </c>
     </row>
     <row r="5">
@@ -594,13 +594,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>116.6857017813586</v>
+        <v>120.4352571348047</v>
       </c>
       <c r="G5" t="n">
-        <v>3.363625883314413e-27</v>
+        <v>5.079785285019881e-28</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02110987240302388</v>
+        <v>0.006221864429556639</v>
       </c>
     </row>
     <row r="6">
@@ -619,30 +619,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="G6" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01301928421089169</v>
+        <v>0.006159906947999291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training</t>
+          <t>caller_is_employee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -651,30 +651,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8883290064550426</v>
+        <v>86.92340326302833</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3459305333140232</v>
+        <v>1.128065634331642e-20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00492061072439518</v>
+        <v>0.005613102857774587</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sla_breached</t>
+          <t>close_code_Information Provided / Training</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -683,30 +683,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>915.4726472302203</v>
+        <v>0.6803916324121152</v>
       </c>
       <c r="G8" t="n">
-        <v>4.248980687842385e-201</v>
+        <v>0.409451899540245</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003545907502174473</v>
+        <v>0.002420080664796069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>has_knowledge_article</t>
+          <t>sla_breached</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -722,23 +722,23 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>34.81280277953115</v>
+        <v>900.9033892294275</v>
       </c>
       <c r="G9" t="n">
-        <v>3.629786486834646e-09</v>
+        <v>6.243597253286266e-198</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002345639194990277</v>
+        <v>0.00232410098489939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>caller_is_employee</t>
+          <t>has_knowledge_article</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -754,13 +754,13 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>86.00805738538253</v>
+        <v>35.06926536617871</v>
       </c>
       <c r="G10" t="n">
-        <v>1.792039823210119e-20</v>
+        <v>3.181833609544766e-09</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002000261713705436</v>
+        <v>0.001377551787330197</v>
       </c>
     </row>
     <row r="11">
@@ -786,13 +786,13 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>42.314501917315</v>
+        <v>42.23504842217222</v>
       </c>
       <c r="G11" t="n">
-        <v>7.771416267429973e-11</v>
+        <v>8.093643014044539e-11</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003918017624877692</v>
+        <v>0.0009843634700822583</v>
       </c>
     </row>
     <row r="12">
@@ -818,13 +818,13 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>109.391853707005</v>
+        <v>109.1455868090539</v>
       </c>
       <c r="G12" t="n">
-        <v>1.331757529725758e-25</v>
+        <v>1.507933417490376e-25</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.0002100012995132499</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>30.0312876065441</v>
+        <v>31.6108223697001</v>
       </c>
       <c r="G13" t="n">
-        <v>4.251311960370145e-08</v>
+        <v>1.88376839400601e-08</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0001776015571267704</v>
       </c>
     </row>
     <row r="14">
@@ -882,13 +882,13 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>21.56381917347364</v>
+        <v>21.61467690125398</v>
       </c>
       <c r="G14" t="n">
-        <v>3.422476790024476e-06</v>
+        <v>3.332916503252091e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.138755406552182e-05</v>
       </c>
     </row>
     <row r="15">
@@ -914,10 +914,10 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>15.28524034640144</v>
+        <v>15.27141667140958</v>
       </c>
       <c r="G15" t="n">
-        <v>9.243595384270451e-05</v>
+        <v>9.311492256008624e-05</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>3.540962606063545</v>
+        <v>3.486221407548221</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05987070582593627</v>
+        <v>0.06188167984311064</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -973,13 +973,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F17" t="n">
-        <v>2681.182401149468</v>
+        <v>2706.423120236372</v>
       </c>
       <c r="G17" t="n">
-        <v>1.250721961446571e-23</v>
+        <v>3.767079800315948e-25</v>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F18" t="n">
-        <v>1824.123930449769</v>
+        <v>1846.25373189093</v>
       </c>
       <c r="G18" t="n">
-        <v>2.858346425893734e-75</v>
+        <v>1.503960617385468e-77</v>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -1029,13 +1029,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F19" t="n">
-        <v>757.5341707421819</v>
+        <v>765.3432532648524</v>
       </c>
       <c r="G19" t="n">
-        <v>2.201367192346436e-94</v>
+        <v>2.04984278226451e-95</v>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
@@ -1060,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>335.8134709170386</v>
+        <v>346.602411731557</v>
       </c>
       <c r="G20" t="n">
-        <v>6.459790618508831e-67</v>
+        <v>3.275009766285184e-69</v>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
@@ -1088,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>103.315517062819</v>
+        <v>107.5382347212224</v>
       </c>
       <c r="G21" t="n">
-        <v>1.180107952614957e-17</v>
+        <v>1.67182232173552e-18</v>
       </c>
       <c r="H21" t="inlineStr"/>
     </row>
@@ -1116,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>75.24537910926617</v>
+        <v>74.25580520776305</v>
       </c>
       <c r="G22" t="n">
-        <v>1.76813754184472e-15</v>
+        <v>2.862857228083405e-15</v>
       </c>
       <c r="H22" t="inlineStr"/>
     </row>
@@ -1144,10 +1144,10 @@
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>53.02979898947834</v>
+        <v>52.67135297523705</v>
       </c>
       <c r="G23" t="n">
-        <v>7.351678343089048e-08</v>
+        <v>8.568760406818492e-08</v>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
@@ -1172,10 +1172,10 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>23.80406556053098</v>
+        <v>21.93541781183875</v>
       </c>
       <c r="G24" t="n">
-        <v>2.744679293689399e-05</v>
+        <v>6.728089110469279e-05</v>
       </c>
       <c r="H24" t="inlineStr"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2463471129800019</v>
+        <v>0.1860382191881642</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6196590139590284</v>
+        <v>0.666234633972506</v>
       </c>
       <c r="H25" t="inlineStr"/>
     </row>
